--- a/output-2/drone-polysemi/bilstm/train_history_bilstm.xlsx
+++ b/output-2/drone-polysemi/bilstm/train_history_bilstm.xlsx
@@ -1000,252 +1000,252 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.08074</t>
+          <t>0.761827</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.091222</t>
+          <t>0.832407</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.093204</t>
+          <t>0.845679</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.104876</t>
+          <t>0.831776</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.820312</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.852334</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.852459</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.846448</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.065129</t>
+          <t>0.854054</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.819856</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.859756</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.065129</t>
+          <t>0.835218</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.877301</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.869166</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.065129</t>
+          <t>0.811321</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.879509</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.824645</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.840804</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>0.089219</t>
+          <t>0.828927</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0.086022</t>
+          <t>0.8382</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>0.086022</t>
+          <t>0.88408</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>0.104089</t>
+          <t>0.851562</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.86262</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>0.065129</t>
+          <t>0.852433</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.848012</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>0.021505</t>
+          <t>0.848954</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>0.089219</t>
+          <t>0.89112</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>0.067274</t>
+          <t>0.864738</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>0.088561</t>
+          <t>0.830964</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>0.065129</t>
+          <t>0.860876</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0.087312</t>
+          <t>0.864101</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>0.089219</t>
+          <t>0.84492</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.818959</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.87404</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.837713</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.829157</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>0.065129</t>
+          <t>0.86387</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>0.065129</t>
+          <t>0.838168</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>0.058824</t>
+          <t>0.868827</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.879087</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.850467</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>0.065129</t>
+          <t>0.892664</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.854003</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.839062</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>0.065129</t>
+          <t>0.850965</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>0.065129</t>
+          <t>0.837817</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>0.065129</t>
+          <t>0.868217</t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>0.065129</t>
+          <t>0.837817</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.848485</t>
         </is>
       </c>
       <c r="BB3" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.855807</t>
         </is>
       </c>
     </row>
@@ -1544,252 +1544,252 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.095949</t>
+          <t>0.707885</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.085627</t>
+          <t>0.81157</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.068474</t>
+          <t>0.8382</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.800621</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.066436</t>
+          <t>0.837061</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.087312</t>
+          <t>0.84441</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.849273</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.83007</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.067797</t>
+          <t>0.827103</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0.048327</t>
+          <t>0.816746</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0.018018</t>
+          <t>0.827423</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.807018</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.827533</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.061538</t>
+          <t>0.865533</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.865194</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.832162</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.840376</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0.073171</t>
+          <t>0.86537</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.841521</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>0.047863</t>
+          <t>0.849336</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.855129</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.846395</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>0.069199</t>
+          <t>0.840874</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.866302</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>0.069199</t>
+          <t>0.870769</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>0.02974</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>0.065129</t>
+          <t>0.850898</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>0.069199</t>
+          <t>0.861611</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>0.087312</t>
+          <t>0.887865</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>0.087312</t>
+          <t>0.860558</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.85446</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>0.065129</t>
+          <t>0.849765</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>0.087312</t>
+          <t>0.886662</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>0.069199</t>
+          <t>0.862042</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>0.065129</t>
+          <t>0.863287</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>0.087312</t>
+          <t>0.853168</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>0.065129</t>
+          <t>0.856474</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>0.065129</t>
+          <t>0.828235</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>0.069199</t>
+          <t>0.851424</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>0.065129</t>
+          <t>0.843505</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>0.087312</t>
+          <t>0.819672</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.863636</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>0.065129</t>
+          <t>0.844136</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.860215</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>0.065129</t>
+          <t>0.85559</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>0.070124</t>
+          <t>0.853583</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>0.065129</t>
+          <t>0.842022</t>
         </is>
       </c>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.870039</t>
         </is>
       </c>
       <c r="BA5" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.857363</t>
         </is>
       </c>
       <c r="BB5" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.843336</t>
         </is>
       </c>
     </row>
@@ -2360,252 +2360,252 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.091111</t>
+          <t>0.806478</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.080054</t>
+          <t>0.821681</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.089302</t>
+          <t>0.870241</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.049696</t>
+          <t>0.869362</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.085686</t>
+          <t>0.800959</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0.065129</t>
+          <t>0.864615</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0.080491</t>
+          <t>0.848243</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.835752</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.82825</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>0.035842</t>
+          <t>0.847405</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.874214</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.053763</t>
+          <t>0.889746</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>0.086022</t>
+          <t>0.834217</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.897554</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.856705</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.809339</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>0.104089</t>
+          <t>0.863741</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>0.065129</t>
+          <t>0.851163</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.83728</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>0.02974</t>
+          <t>0.844479</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>0.065129</t>
+          <t>0.869366</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>0.070556</t>
+          <t>0.83836</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>0.065129</t>
+          <t>0.840273</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.881098</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.83675</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>0.096654</t>
+          <t>0.831128</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.860856</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.852053</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>0.044262</t>
+          <t>0.848302</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>0.047863</t>
+          <t>0.864615</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>0.052932</t>
+          <t>0.862805</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>0.070073</t>
+          <t>0.880551</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.885978</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>0.05317</t>
+          <t>0.833856</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.854216</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>0.037569</t>
+          <t>0.872837</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.873239</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>0.051346</t>
+          <t>0.86296</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>0.059607</t>
+          <t>0.86758</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.853792</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.862654</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>0.043349</t>
+          <t>0.84488</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>0.089219</t>
+          <t>0.860429</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.882353</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>0.090909</t>
+          <t>0.850115</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>0.05914</t>
+          <t>0.865109</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>0.065484</t>
+          <t>0.893553</t>
         </is>
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>0.03302</t>
+          <t>0.881024</t>
         </is>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>0.048327</t>
+          <t>0.844815</t>
         </is>
       </c>
       <c r="BB8" t="inlineStr">
         <is>
-          <t>0.080491</t>
+          <t>0.874433</t>
         </is>
       </c>
     </row>
